--- a/data processing/Input Files/List_Of_Indicators_GEM.xlsx
+++ b/data processing/Input Files/List_Of_Indicators_GEM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BIS Consultancy\Product Development\Scenarios_Dashboard\Dashboard\data processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC3EDE-BEBB-4067-A3C7-88F705A2175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864FFCC-62D6-4EC9-AC39-F1A538A2C1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{0718B14B-BDA5-4677-A130-78AE0681013F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0718B14B-BDA5-4677-A130-78AE0681013F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="195">
   <si>
     <t>Database</t>
   </si>
@@ -608,13 +608,19 @@
     <t>Key Indicators</t>
   </si>
   <si>
-    <t>Personal Sector</t>
-  </si>
-  <si>
     <t>Financial Indicators</t>
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>GDPHEAD</t>
+  </si>
+  <si>
+    <t>GDP per capita</t>
+  </si>
+  <si>
+    <t>US$ 2015 prices</t>
   </si>
 </sst>
 </file>
@@ -989,26 +995,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3629D064-AF3C-40AE-93DD-210D4C69C1D7}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1031,10 +1037,10 @@
         <v>145</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>B2&amp;","&amp;C2</f>
+        <f t="shared" ref="D2:D33" si="0">B2&amp;","&amp;C2</f>
         <v>DCOAL_XELEC,AUSTRALI</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1061,7 +1067,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>B3&amp;","&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>DELEC,AUSTRALI</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1088,7 +1094,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>B4&amp;","&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>DGAS_XELEC,AUSTRALI</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1115,7 +1121,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>B5&amp;","&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>DOIL_XELEC,AUSTRALI</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1142,7 +1148,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>B6&amp;","&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>ENERGY_INT,AUSTRALI</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1169,7 +1175,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>B7&amp;","&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>PEN,AUSTRALI</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1196,7 +1202,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>B8&amp;","&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>PPIELEC,AUSTRALI</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1223,7 +1229,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>B9&amp;","&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>QELEC_COAL,AUSTRALI</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1250,7 +1256,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>B10&amp;","&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>QELEC_GAS,AUSTRALI</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1277,7 +1283,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>B11&amp;","&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>QELEC_OIL,AUSTRALI</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1304,7 +1310,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>B12&amp;","&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>QELEC_RENEW,AUSTRALI</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1331,7 +1337,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>B13&amp;","&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>MRTPE,AUSTRALI</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1355,10 +1361,10 @@
         <v>147</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>B14&amp;","&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>RBM,AUSTRALI</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1382,10 +1388,10 @@
         <v>147</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>B15&amp;","&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>RCB,AUSTRALI</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1409,10 +1415,10 @@
         <v>147</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>B16&amp;","&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>RLG,AUSTRALI</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1436,10 +1442,10 @@
         <v>147</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>B17&amp;","&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>RSH,AUSTRALI</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1463,10 +1469,10 @@
         <v>147</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>B18&amp;","&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>RXD,AUSTRALI</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1490,10 +1496,10 @@
         <v>147</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>B19&amp;","&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>RXEURO,AUSTRALI</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1517,10 +1523,10 @@
         <v>147</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>B20&amp;","&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>RXGBP,AUSTRALI</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1544,10 +1550,10 @@
         <v>147</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>B21&amp;","&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>RXYEN,AUSTRALI</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1571,10 +1577,10 @@
         <v>147</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>B22&amp;","&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>BCU$,AUSTRALI</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1601,7 +1607,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>B23&amp;","&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>C,AUSTRALI</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1628,7 +1634,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>B24&amp;","&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>GC,AUSTRALI</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1655,7 +1661,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>B25&amp;","&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>GI,AUSTRALI</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1682,7 +1688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>B26&amp;","&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>IF,AUSTRALI</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1709,7 +1715,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>B27&amp;","&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>IPDEN,AUSTRALI</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1736,7 +1742,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>B28&amp;","&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>IPNR,AUSTRALI</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1763,7 +1769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>B29&amp;","&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>IPOTC,AUSTRALI</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1790,7 +1796,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>B30&amp;","&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>IPRD,AUSTRALI</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1817,7 +1823,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>B31&amp;","&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>K,AUSTRALI</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1844,7 +1850,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>B32&amp;","&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>M,AUSTRALI</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1871,7 +1877,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>B33&amp;","&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>TREND,AUSTRALI</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1898,7 +1904,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>B34&amp;","&amp;C34</f>
+        <f t="shared" ref="D34:D65" si="1">B34&amp;","&amp;C34</f>
         <v>X,AUSTRALI</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1925,7 +1931,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>B35&amp;","&amp;C35</f>
+        <f t="shared" si="1"/>
         <v>YHAT,AUSTRALI</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1952,7 +1958,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>B36&amp;","&amp;C36</f>
+        <f t="shared" si="1"/>
         <v>GVA,AUSTRALI</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1979,7 +1985,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>B37&amp;","&amp;C37</f>
+        <f t="shared" si="1"/>
         <v>GVAAGR,AUSTRALI</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2006,7 +2012,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>B38&amp;","&amp;C38</f>
+        <f t="shared" si="1"/>
         <v>GVABUS,AUSTRALI</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2033,7 +2039,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>B39&amp;","&amp;C39</f>
+        <f t="shared" si="1"/>
         <v>GVABUSP,AUSTRALI</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -2060,7 +2066,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>B40&amp;","&amp;C40</f>
+        <f t="shared" si="1"/>
         <v>GVABUSR,AUSTRALI</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2087,7 +2093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>B41&amp;","&amp;C41</f>
+        <f t="shared" si="1"/>
         <v>GVABUSS,AUSTRALI</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -2114,7 +2120,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>B42&amp;","&amp;C42</f>
+        <f t="shared" si="1"/>
         <v>GVACON,AUSTRALI</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -2141,7 +2147,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>B43&amp;","&amp;C43</f>
+        <f t="shared" si="1"/>
         <v>GVADIS,AUSTRALI</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2168,7 +2174,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>B44&amp;","&amp;C44</f>
+        <f t="shared" si="1"/>
         <v>GVADISR,AUSTRALI</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -2195,7 +2201,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>B45&amp;","&amp;C45</f>
+        <f t="shared" si="1"/>
         <v>GVADISW,AUSTRALI</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -2222,7 +2228,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>18</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>B46&amp;","&amp;C46</f>
+        <f t="shared" si="1"/>
         <v>GVAEDU,AUSTRALI</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -2249,7 +2255,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>18</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>B47&amp;","&amp;C47</f>
+        <f t="shared" si="1"/>
         <v>GVAFIN,AUSTRALI</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -2276,7 +2282,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>B48&amp;","&amp;C48</f>
+        <f t="shared" si="1"/>
         <v>GVAFINB,AUSTRALI</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2303,7 +2309,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>B49&amp;","&amp;C49</f>
+        <f t="shared" si="1"/>
         <v>GVAGOV,AUSTRALI</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -2330,7 +2336,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>18</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>B50&amp;","&amp;C50</f>
+        <f t="shared" si="1"/>
         <v>GVAHEAL,AUSTRALI</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -2357,7 +2363,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>18</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>B51&amp;","&amp;C51</f>
+        <f t="shared" si="1"/>
         <v>GVAHTL,AUSTRALI</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -2384,7 +2390,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>18</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>B52&amp;","&amp;C52</f>
+        <f t="shared" si="1"/>
         <v>GVAIND,AUSTRALI</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2411,7 +2417,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>B53&amp;","&amp;C53</f>
+        <f t="shared" si="1"/>
         <v>GVAMAN,AUSTRALI</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -2438,7 +2444,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>18</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>B54&amp;","&amp;C54</f>
+        <f t="shared" si="1"/>
         <v>GVAMIN,AUSTRALI</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -2465,7 +2471,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>B55&amp;","&amp;C55</f>
+        <f t="shared" si="1"/>
         <v>GVANMKT,AUSTRALI</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2492,7 +2498,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>B56&amp;","&amp;C56</f>
+        <f t="shared" si="1"/>
         <v>GVAOTHS,AUSTRALI</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2519,7 +2525,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>18</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>B57&amp;","&amp;C57</f>
+        <f t="shared" si="1"/>
         <v>GVAOTRA,AUSTRALI</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2546,7 +2552,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>B58&amp;","&amp;C58</f>
+        <f t="shared" si="1"/>
         <v>GVAPUB,AUSTRALI</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -2573,7 +2579,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>18</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>B59&amp;","&amp;C59</f>
+        <f t="shared" si="1"/>
         <v>GVAROAD,AUSTRALI</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -2600,7 +2606,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>18</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>B60&amp;","&amp;C60</f>
+        <f t="shared" si="1"/>
         <v>GVASER,AUSTRALI</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2627,7 +2633,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>B61&amp;","&amp;C61</f>
+        <f t="shared" si="1"/>
         <v>GVATRA,AUSTRALI</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -2654,7 +2660,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>18</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>B62&amp;","&amp;C62</f>
+        <f t="shared" si="1"/>
         <v>GVATRAC,AUSTRALI</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -2681,7 +2687,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>18</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>B63&amp;","&amp;C63</f>
+        <f t="shared" si="1"/>
         <v>GVATRAS,AUSTRALI</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -2708,7 +2714,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>18</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>B64&amp;","&amp;C64</f>
+        <f t="shared" si="1"/>
         <v>GVATRD,AUSTRALI</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -2735,7 +2741,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>18</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>B65&amp;","&amp;C65</f>
+        <f t="shared" si="1"/>
         <v>GVAU,AUSTRALI</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -2762,7 +2768,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>B66&amp;","&amp;C66</f>
+        <f t="shared" ref="D66:D97" si="2">B66&amp;","&amp;C66</f>
         <v>CPI,AUSTRALI</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -2789,7 +2795,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>18</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>B67&amp;","&amp;C67</f>
+        <f t="shared" si="2"/>
         <v>ERI,AUSTRALI</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -2816,7 +2822,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>B68&amp;","&amp;C68</f>
+        <f t="shared" si="2"/>
         <v>GDP,AUSTRALI</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -2843,7 +2849,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>18</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>B69&amp;","&amp;C69</f>
+        <f t="shared" si="2"/>
         <v>PEDY,AUSTRALI</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -2870,7 +2876,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>18</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>B70&amp;","&amp;C70</f>
+        <f t="shared" si="2"/>
         <v>PH,AUSTRALI</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -2897,7 +2903,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>18</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>B71&amp;","&amp;C71</f>
+        <f t="shared" si="2"/>
         <v>AVHR,AUSTRALI</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -2924,7 +2930,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>18</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>B72&amp;","&amp;C72</f>
+        <f t="shared" si="2"/>
         <v>EDUC,AUSTRALI</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2951,7 +2957,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>18</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>B73&amp;","&amp;C73</f>
+        <f t="shared" si="2"/>
         <v>ESTAR,AUSTRALI</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -2978,7 +2984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>18</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f>B74&amp;","&amp;C74</f>
+        <f t="shared" si="2"/>
         <v>ET,AUSTRALI</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -3005,7 +3011,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f>B75&amp;","&amp;C75</f>
+        <f t="shared" si="2"/>
         <v>LS,AUSTRALI</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -3032,7 +3038,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>18</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>B76&amp;","&amp;C76</f>
+        <f t="shared" si="2"/>
         <v>PART,AUSTRALI</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -3059,7 +3065,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>18</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>B77&amp;","&amp;C77</f>
+        <f t="shared" si="2"/>
         <v>POP,AUSTRALI</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -3086,7 +3092,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>18</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>B78&amp;","&amp;C78</f>
+        <f t="shared" si="2"/>
         <v>POPW,AUSTRALI</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -3113,7 +3119,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>18</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>B79&amp;","&amp;C79</f>
+        <f t="shared" si="2"/>
         <v>UP,AUSTRALI</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3140,7 +3146,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3157,7 @@
         <v>18</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f>B80&amp;","&amp;C80</f>
+        <f t="shared" si="2"/>
         <v>HHLIAB,AUSTRALI</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3164,7 +3170,34 @@
         <v>147</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GDPHEAD,AUSTRALI</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data processing/Input Files/List_Of_Indicators_GEM.xlsx
+++ b/data processing/Input Files/List_Of_Indicators_GEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcrook\Documents\scenario_dashboard\data processing\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864FFCC-62D6-4EC9-AC39-F1A538A2C1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1747B8-D81F-4F9D-8982-4E07C272D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0718B14B-BDA5-4677-A130-78AE0681013F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0718B14B-BDA5-4677-A130-78AE0681013F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="198">
   <si>
     <t>Database</t>
   </si>
@@ -621,6 +621,15 @@
   </si>
   <si>
     <t>US$ 2015 prices</t>
+  </si>
+  <si>
+    <t>TRDBAL</t>
+  </si>
+  <si>
+    <t>Trade Balance</t>
+  </si>
+  <si>
+    <t>AUS$</t>
   </si>
 </sst>
 </file>
@@ -995,26 +1004,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3629D064-AF3C-40AE-93DD-210D4C69C1D7}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1697,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1796,7 +1805,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1886,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2021,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2264,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2345,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2426,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -2552,7 +2561,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2579,7 +2588,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2642,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -2714,7 +2723,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -2779,7 +2788,7 @@
         <v>18</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" ref="D66:D97" si="2">B66&amp;","&amp;C66</f>
+        <f t="shared" ref="D66:D82" si="2">B66&amp;","&amp;C66</f>
         <v>CPI,AUSTRALI</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -2795,7 +2804,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -2876,7 +2885,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -2903,7 +2912,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -2984,7 +2993,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +3020,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>4</v>
       </c>
@@ -3038,7 +3047,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -3065,7 +3074,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3101,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -3146,7 +3155,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -3197,6 +3206,33 @@
         <v>147</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TRDBAL,AUSTRALI</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>187</v>
       </c>
     </row>
